--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11040" windowHeight="3975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14085" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J11"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -73,13 +73,13 @@
     <t>ABC</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>optest</t>
   </si>
   <si>
     <t>P@$$W00rd</t>
+  </si>
+  <si>
+    <t>INDIA</t>
   </si>
 </sst>
 </file>
@@ -426,12 +426,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
@@ -503,16 +504,16 @@
         <v>123456</v>
       </c>
       <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -528,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
@@ -547,10 +548,10 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
